--- a/biology/Zoologie/Grisin_noirâtre/Grisin_noirâtre.xlsx
+++ b/biology/Zoologie/Grisin_noirâtre/Grisin_noirâtre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grisin_noir%C3%A2tre</t>
+          <t>Grisin_noirâtre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cercomacroides nigrescens
 Le Grisin noirâtre (Cercomacroides nigrescens) est une espèce de passereaux de la famille des Thamnophilidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grisin_noir%C3%A2tre</t>
+          <t>Grisin_noirâtre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple de manière dissoute l'Amazonie et le plateau des Guyanes.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grisin_noir%C3%A2tre</t>
+          <t>Grisin_noirâtre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (14 avril 2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (14 avril 2024) :
 Cercomacra nigrescens aequatorialis Zimmer, 1931
 Cercomacra nigrescens approximans Pelzeln, 1868
 Cercomacra nigrescens fuscicauda Zimmer, 1931
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grisin_noir%C3%A2tre</t>
+          <t>Grisin_noirâtre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,12 +595,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Cercomacra nigrescens (Cabanis &amp; Heine, 1859)[1].
-L'espèce a été initialement classée dans le genre Percnostola sous le protonyme Percnostola nigrescens Cabanis &amp; Heine, 1859[1].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Grisin noirâtre[1].
-Cercomacra nigrescens a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Cercomacra nigrescens (Cabanis &amp; Heine, 1859).
+L'espèce a été initialement classée dans le genre Percnostola sous le protonyme Percnostola nigrescens Cabanis &amp; Heine, 1859.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Grisin noirâtre.
+Cercomacra nigrescens a pour synonymes :
 Cercomacroides nigrescens nigrescens
 Cercomacroides nigrescens (Cabanis &amp; Heine, 1860)
 Percnostola nigrescens Cabanis &amp; Heine, 1859</t>
